--- a/artfynd/A 31560-2024 artfynd.xlsx
+++ b/artfynd/A 31560-2024 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY7"/>
+  <dimension ref="A1:AY39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1398,6 +1398,3651 @@
         </is>
       </c>
     </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>131244269</v>
+      </c>
+      <c r="B8" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I8" t="inlineStr"/>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
+      <c r="N8" t="inlineStr"/>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q8" t="n">
+        <v>613333</v>
+      </c>
+      <c r="R8" t="n">
+        <v>6998073</v>
+      </c>
+      <c r="S8" t="n">
+        <v>25</v>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W8" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y8" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA8" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Rikligt med garnlav inom ett område på 25m</t>
+        </is>
+      </c>
+      <c r="AD8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF8" t="inlineStr"/>
+      <c r="AG8" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ8" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK8" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO8" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT8" t="inlineStr"/>
+      <c r="AW8" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX8" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY8" t="inlineStr"/>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>131244272</v>
+      </c>
+      <c r="B9" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="N9" t="inlineStr"/>
+      <c r="P9" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q9" t="n">
+        <v>613374</v>
+      </c>
+      <c r="R9" t="n">
+        <v>6998037</v>
+      </c>
+      <c r="S9" t="n">
+        <v>10</v>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W9" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y9" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA9" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF9" t="inlineStr"/>
+      <c r="AG9" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ9" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK9" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO9" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT9" t="inlineStr"/>
+      <c r="AW9" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX9" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY9" t="inlineStr"/>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>131244258</v>
+      </c>
+      <c r="B10" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E10" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N10" t="inlineStr"/>
+      <c r="P10" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q10" t="n">
+        <v>613451</v>
+      </c>
+      <c r="R10" t="n">
+        <v>6998138</v>
+      </c>
+      <c r="S10" t="n">
+        <v>10</v>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V10" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA10" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG10" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT10" t="inlineStr"/>
+      <c r="AW10" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX10" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY10" t="inlineStr"/>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>131244279</v>
+      </c>
+      <c r="B11" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E11" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
+      <c r="N11" t="inlineStr"/>
+      <c r="P11" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>613427</v>
+      </c>
+      <c r="R11" t="n">
+        <v>6998062</v>
+      </c>
+      <c r="S11" t="n">
+        <v>10</v>
+      </c>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W11" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y11" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA11" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF11" t="inlineStr"/>
+      <c r="AG11" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT11" t="inlineStr"/>
+      <c r="AW11" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX11" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY11" t="inlineStr"/>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>131244300</v>
+      </c>
+      <c r="B12" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E12" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="N12" t="inlineStr"/>
+      <c r="P12" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>613444</v>
+      </c>
+      <c r="R12" t="n">
+        <v>6998046</v>
+      </c>
+      <c r="S12" t="n">
+        <v>10</v>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W12" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y12" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA12" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF12" t="inlineStr"/>
+      <c r="AG12" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT12" t="inlineStr"/>
+      <c r="AW12" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX12" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY12" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>131244283</v>
+      </c>
+      <c r="B13" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E13" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I13" t="inlineStr"/>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="N13" t="inlineStr"/>
+      <c r="P13" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>613348</v>
+      </c>
+      <c r="R13" t="n">
+        <v>6998028</v>
+      </c>
+      <c r="S13" t="n">
+        <v>10</v>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W13" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y13" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA13" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF13" t="inlineStr"/>
+      <c r="AG13" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ13" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO13" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT13" t="inlineStr"/>
+      <c r="AW13" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX13" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY13" t="inlineStr"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>131244299</v>
+      </c>
+      <c r="B14" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E14" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr"/>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
+      <c r="N14" t="inlineStr"/>
+      <c r="P14" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>613428</v>
+      </c>
+      <c r="R14" t="n">
+        <v>6997981</v>
+      </c>
+      <c r="S14" t="n">
+        <v>10</v>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W14" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y14" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA14" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF14" t="inlineStr"/>
+      <c r="AG14" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ14" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK14" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO14" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT14" t="inlineStr"/>
+      <c r="AW14" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX14" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY14" t="inlineStr"/>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>131244281</v>
+      </c>
+      <c r="B15" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E15" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I15" t="inlineStr"/>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="N15" t="inlineStr"/>
+      <c r="P15" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>613346</v>
+      </c>
+      <c r="R15" t="n">
+        <v>6998128</v>
+      </c>
+      <c r="S15" t="n">
+        <v>50</v>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W15" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y15" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA15" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Rikliga mängder garnlav på främst tall men även gran inom ett område på ca 50 m.</t>
+        </is>
+      </c>
+      <c r="AD15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF15" t="inlineStr"/>
+      <c r="AG15" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT15" t="inlineStr"/>
+      <c r="AW15" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX15" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY15" t="inlineStr"/>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>131244280</v>
+      </c>
+      <c r="B16" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E16" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr"/>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="N16" t="inlineStr"/>
+      <c r="P16" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q16" t="n">
+        <v>613405</v>
+      </c>
+      <c r="R16" t="n">
+        <v>6998110</v>
+      </c>
+      <c r="S16" t="n">
+        <v>10</v>
+      </c>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W16" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y16" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA16" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF16" t="inlineStr"/>
+      <c r="AG16" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT16" t="inlineStr"/>
+      <c r="AW16" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX16" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY16" t="inlineStr"/>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>131244274</v>
+      </c>
+      <c r="B17" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E17" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="N17" t="inlineStr"/>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q17" t="n">
+        <v>613467</v>
+      </c>
+      <c r="R17" t="n">
+        <v>6997940</v>
+      </c>
+      <c r="S17" t="n">
+        <v>10</v>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA17" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF17" t="inlineStr"/>
+      <c r="AG17" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT17" t="inlineStr"/>
+      <c r="AW17" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX17" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY17" t="inlineStr"/>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>131244273</v>
+      </c>
+      <c r="B18" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E18" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr"/>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="N18" t="inlineStr"/>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q18" t="n">
+        <v>613476</v>
+      </c>
+      <c r="R18" t="n">
+        <v>6997926</v>
+      </c>
+      <c r="S18" t="n">
+        <v>10</v>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA18" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Två tallar med rikliga mängder garnlav</t>
+        </is>
+      </c>
+      <c r="AD18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF18" t="inlineStr"/>
+      <c r="AG18" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ18" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK18" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO18" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT18" t="inlineStr"/>
+      <c r="AW18" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX18" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY18" t="inlineStr"/>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>131244253</v>
+      </c>
+      <c r="B19" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E19" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q19" t="n">
+        <v>613354</v>
+      </c>
+      <c r="R19" t="n">
+        <v>6998128</v>
+      </c>
+      <c r="S19" t="n">
+        <v>10</v>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA19" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC19" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
+        </is>
+      </c>
+      <c r="AD19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG19" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AW19" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX19" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY19" t="inlineStr"/>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>131244289</v>
+      </c>
+      <c r="B20" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E20" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="N20" t="inlineStr"/>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q20" t="n">
+        <v>613338</v>
+      </c>
+      <c r="R20" t="n">
+        <v>6998224</v>
+      </c>
+      <c r="S20" t="n">
+        <v>10</v>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA20" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF20" t="inlineStr"/>
+      <c r="AG20" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT20" t="inlineStr"/>
+      <c r="AW20" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX20" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY20" t="inlineStr"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>131244257</v>
+      </c>
+      <c r="B21" t="n">
+        <v>57881</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E21" t="n">
+        <v>100049</v>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Spillkråka</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>Dryocopus martius</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr"/>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q21" t="n">
+        <v>613343</v>
+      </c>
+      <c r="R21" t="n">
+        <v>6998121</v>
+      </c>
+      <c r="S21" t="n">
+        <v>10</v>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA21" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG21" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT21" t="inlineStr"/>
+      <c r="AW21" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX21" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY21" t="inlineStr"/>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>131244276</v>
+      </c>
+      <c r="B22" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E22" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr"/>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="N22" t="inlineStr"/>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>613444</v>
+      </c>
+      <c r="R22" t="n">
+        <v>6998014</v>
+      </c>
+      <c r="S22" t="n">
+        <v>25</v>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA22" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Rilkigt med garnlav inom ett ca 25m område</t>
+        </is>
+      </c>
+      <c r="AD22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF22" t="inlineStr"/>
+      <c r="AG22" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ22" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK22" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO22" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT22" t="inlineStr"/>
+      <c r="AW22" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX22" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY22" t="inlineStr"/>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>131244278</v>
+      </c>
+      <c r="B23" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E23" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr"/>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="N23" t="inlineStr"/>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>613406</v>
+      </c>
+      <c r="R23" t="n">
+        <v>6998050</v>
+      </c>
+      <c r="S23" t="n">
+        <v>10</v>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA23" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF23" t="inlineStr"/>
+      <c r="AG23" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ23" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO23" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT23" t="inlineStr"/>
+      <c r="AW23" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX23" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY23" t="inlineStr"/>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>131244290</v>
+      </c>
+      <c r="B24" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E24" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr"/>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="N24" t="inlineStr"/>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q24" t="n">
+        <v>613327</v>
+      </c>
+      <c r="R24" t="n">
+        <v>6998224</v>
+      </c>
+      <c r="S24" t="n">
+        <v>10</v>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA24" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF24" t="inlineStr"/>
+      <c r="AG24" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ24" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK24" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO24" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT24" t="inlineStr"/>
+      <c r="AW24" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX24" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY24" t="inlineStr"/>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>131244288</v>
+      </c>
+      <c r="B25" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E25" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr"/>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="N25" t="inlineStr"/>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q25" t="n">
+        <v>613331</v>
+      </c>
+      <c r="R25" t="n">
+        <v>6998221</v>
+      </c>
+      <c r="S25" t="n">
+        <v>10</v>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA25" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF25" t="inlineStr"/>
+      <c r="AG25" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ25" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK25" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO25" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT25" t="inlineStr"/>
+      <c r="AW25" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX25" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY25" t="inlineStr"/>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>131244284</v>
+      </c>
+      <c r="B26" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E26" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr"/>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="N26" t="inlineStr"/>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q26" t="n">
+        <v>613344</v>
+      </c>
+      <c r="R26" t="n">
+        <v>6998035</v>
+      </c>
+      <c r="S26" t="n">
+        <v>10</v>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA26" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF26" t="inlineStr"/>
+      <c r="AG26" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ26" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK26" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO26" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT26" t="inlineStr"/>
+      <c r="AW26" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX26" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY26" t="inlineStr"/>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>131244251</v>
+      </c>
+      <c r="B27" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E27" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>äldre spår</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr"/>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q27" t="n">
+        <v>613464</v>
+      </c>
+      <c r="R27" t="n">
+        <v>6997976</v>
+      </c>
+      <c r="S27" t="n">
+        <v>10</v>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA27" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC27" t="inlineStr">
+        <is>
+          <t>Äldre ringhack tall</t>
+        </is>
+      </c>
+      <c r="AD27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG27" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT27" t="inlineStr"/>
+      <c r="AW27" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX27" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY27" t="inlineStr"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>131244259</v>
+      </c>
+      <c r="B28" t="n">
+        <v>92107</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E28" t="n">
+        <v>658</v>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>Rosenticka</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Fomitopsis rosea</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q28" t="n">
+        <v>613387</v>
+      </c>
+      <c r="R28" t="n">
+        <v>6998216</v>
+      </c>
+      <c r="S28" t="n">
+        <v>10</v>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA28" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG28" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT28" t="inlineStr"/>
+      <c r="AW28" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX28" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY28" t="inlineStr"/>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>131244255</v>
+      </c>
+      <c r="B29" t="n">
+        <v>58043</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E29" t="n">
+        <v>103021</v>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>Talltita</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Poecile montanus</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q29" t="n">
+        <v>613399</v>
+      </c>
+      <c r="R29" t="n">
+        <v>6998197</v>
+      </c>
+      <c r="S29" t="n">
+        <v>10</v>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
+      <c r="AA29" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>10:00</t>
+        </is>
+      </c>
+      <c r="AD29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG29" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT29" t="inlineStr"/>
+      <c r="AW29" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX29" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY29" t="inlineStr"/>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>131244252</v>
+      </c>
+      <c r="B30" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E30" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr"/>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q30" t="n">
+        <v>613433</v>
+      </c>
+      <c r="R30" t="n">
+        <v>6998019</v>
+      </c>
+      <c r="S30" t="n">
+        <v>10</v>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA30" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC30" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
+        </is>
+      </c>
+      <c r="AD30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG30" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT30" t="inlineStr"/>
+      <c r="AW30" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX30" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY30" t="inlineStr"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>131244263</v>
+      </c>
+      <c r="B31" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E31" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr"/>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="N31" t="inlineStr"/>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q31" t="n">
+        <v>613379</v>
+      </c>
+      <c r="R31" t="n">
+        <v>6998218</v>
+      </c>
+      <c r="S31" t="n">
+        <v>25</v>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA31" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC31" t="inlineStr">
+        <is>
+          <t>Rikliga mängder garnlav på gran inom ett område på 25m.</t>
+        </is>
+      </c>
+      <c r="AD31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF31" t="inlineStr"/>
+      <c r="AG31" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ31" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO31" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT31" t="inlineStr"/>
+      <c r="AW31" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX31" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY31" t="inlineStr"/>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>131244296</v>
+      </c>
+      <c r="B32" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E32" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr"/>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="N32" t="inlineStr"/>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q32" t="n">
+        <v>613453</v>
+      </c>
+      <c r="R32" t="n">
+        <v>6998141</v>
+      </c>
+      <c r="S32" t="n">
+        <v>10</v>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA32" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF32" t="inlineStr"/>
+      <c r="AG32" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ32" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK32" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO32" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT32" t="inlineStr"/>
+      <c r="AW32" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX32" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY32" t="inlineStr"/>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>131244266</v>
+      </c>
+      <c r="B33" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr"/>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="N33" t="inlineStr"/>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q33" t="n">
+        <v>613400</v>
+      </c>
+      <c r="R33" t="n">
+        <v>6997964</v>
+      </c>
+      <c r="S33" t="n">
+        <v>10</v>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA33" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF33" t="inlineStr"/>
+      <c r="AG33" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ33" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK33" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO33" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT33" t="inlineStr"/>
+      <c r="AW33" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX33" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY33" t="inlineStr"/>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>131244277</v>
+      </c>
+      <c r="B34" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr"/>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="N34" t="inlineStr"/>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q34" t="n">
+        <v>613397</v>
+      </c>
+      <c r="R34" t="n">
+        <v>6998050</v>
+      </c>
+      <c r="S34" t="n">
+        <v>10</v>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA34" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF34" t="inlineStr"/>
+      <c r="AG34" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ34" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO34" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT34" t="inlineStr"/>
+      <c r="AW34" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX34" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY34" t="inlineStr"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>131244295</v>
+      </c>
+      <c r="B35" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr"/>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="N35" t="inlineStr"/>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>613437</v>
+      </c>
+      <c r="R35" t="n">
+        <v>6998166</v>
+      </c>
+      <c r="S35" t="n">
+        <v>10</v>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA35" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF35" t="inlineStr"/>
+      <c r="AG35" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ35" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO35" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT35" t="inlineStr"/>
+      <c r="AW35" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX35" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY35" t="inlineStr"/>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>131244248</v>
+      </c>
+      <c r="B36" t="n">
+        <v>91809</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>1202</v>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Ullticka</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Phellinidium ferrugineofuscum</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr"/>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>613420</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6998068</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA36" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG36" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT36" t="inlineStr"/>
+      <c r="AW36" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX36" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY36" t="inlineStr"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>131244250</v>
+      </c>
+      <c r="B37" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N37" t="inlineStr"/>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>613387</v>
+      </c>
+      <c r="R37" t="n">
+        <v>6998025</v>
+      </c>
+      <c r="S37" t="n">
+        <v>10</v>
+      </c>
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W37" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y37" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA37" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
+        </is>
+      </c>
+      <c r="AD37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG37" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT37" t="inlineStr"/>
+      <c r="AW37" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX37" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY37" t="inlineStr"/>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>131244297</v>
+      </c>
+      <c r="B38" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E38" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="N38" t="inlineStr"/>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>613464</v>
+      </c>
+      <c r="R38" t="n">
+        <v>6998117</v>
+      </c>
+      <c r="S38" t="n">
+        <v>10</v>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA38" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF38" t="inlineStr"/>
+      <c r="AG38" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AT38" t="inlineStr"/>
+      <c r="AW38" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX38" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY38" t="inlineStr"/>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>131244265</v>
+      </c>
+      <c r="B39" t="n">
+        <v>79244</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E39" t="n">
+        <v>6425</v>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>Garnlav</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Alectoria sarmentosa</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>(Ach.) Ach.</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr"/>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="N39" t="inlineStr"/>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>613416</v>
+      </c>
+      <c r="R39" t="n">
+        <v>6998149</v>
+      </c>
+      <c r="S39" t="n">
+        <v>10</v>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA39" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AD39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AF39" t="inlineStr"/>
+      <c r="AG39" t="b">
+        <v>0</v>
+      </c>
+      <c r="AJ39" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO39" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AT39" t="inlineStr"/>
+      <c r="AW39" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX39" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY39" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 31560-2024 artfynd.xlsx
+++ b/artfynd/A 31560-2024 artfynd.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AY39"/>
+  <dimension ref="A1:AY40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2206,7 +2206,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131244281</v>
+        <v>131244280</v>
       </c>
       <c r="B15" t="n">
         <v>79244</v>
@@ -2244,13 +2244,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>613346</v>
+        <v>613405</v>
       </c>
       <c r="R15" t="n">
-        <v>6998128</v>
+        <v>6998110</v>
       </c>
       <c r="S15" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2280,11 +2280,6 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Rikliga mängder garnlav på främst tall men även gran inom ett område på ca 50 m.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2296,6 +2291,21 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2312,7 +2322,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131244280</v>
+        <v>131244281</v>
       </c>
       <c r="B16" t="n">
         <v>79244</v>
@@ -2350,13 +2360,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>613405</v>
+        <v>613346</v>
       </c>
       <c r="R16" t="n">
-        <v>6998110</v>
+        <v>6998128</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2386,6 +2396,11 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Rikliga mängder garnlav på främst tall men även gran inom ett område på ca 50 m.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2397,21 +2412,6 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -3691,10 +3691,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131244259</v>
+        <v>131244255</v>
       </c>
       <c r="B28" t="n">
-        <v>92107</v>
+        <v>58043</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3702,34 +3702,50 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>658</v>
+        <v>103021</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P28" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>613387</v>
+        <v>613399</v>
       </c>
       <c r="R28" t="n">
-        <v>6998216</v>
+        <v>6998197</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3759,9 +3775,19 @@
           <t>2026-02-20</t>
         </is>
       </c>
+      <c r="Z28" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AB28" t="inlineStr">
+        <is>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3788,10 +3814,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131244255</v>
+        <v>131244259</v>
       </c>
       <c r="B29" t="n">
-        <v>58043</v>
+        <v>92107</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3799,50 +3825,34 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>103021</v>
+        <v>658</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K29" t="inlineStr"/>
-      <c r="L29" t="inlineStr"/>
-      <c r="M29" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>613399</v>
+        <v>613387</v>
       </c>
       <c r="R29" t="n">
-        <v>6998197</v>
+        <v>6998216</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3872,19 +3882,9 @@
           <t>2026-02-20</t>
         </is>
       </c>
-      <c r="Z29" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="AB29" t="inlineStr">
-        <is>
-          <t>10:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -4021,7 +4021,7 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>131244263</v>
+        <v>131244296</v>
       </c>
       <c r="B31" t="n">
         <v>79244</v>
@@ -4059,13 +4059,13 @@
         </is>
       </c>
       <c r="Q31" t="n">
-        <v>613379</v>
+        <v>613453</v>
       </c>
       <c r="R31" t="n">
-        <v>6998218</v>
+        <v>6998141</v>
       </c>
       <c r="S31" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T31" t="inlineStr">
         <is>
@@ -4095,11 +4095,6 @@
       <c r="AA31" t="inlineStr">
         <is>
           <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="AC31" t="inlineStr">
-        <is>
-          <t>Rikliga mängder garnlav på gran inom ett område på 25m.</t>
         </is>
       </c>
       <c r="AD31" t="b">
@@ -4114,17 +4109,17 @@
       </c>
       <c r="AJ31" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK31" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO31" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT31" t="inlineStr"/>
@@ -4142,7 +4137,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131244296</v>
+        <v>131244266</v>
       </c>
       <c r="B32" t="n">
         <v>79244</v>
@@ -4180,10 +4175,10 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>613453</v>
+        <v>613400</v>
       </c>
       <c r="R32" t="n">
-        <v>6998141</v>
+        <v>6997964</v>
       </c>
       <c r="S32" t="n">
         <v>10</v>
@@ -4258,7 +4253,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131244266</v>
+        <v>131244263</v>
       </c>
       <c r="B33" t="n">
         <v>79244</v>
@@ -4296,13 +4291,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>613400</v>
+        <v>613379</v>
       </c>
       <c r="R33" t="n">
-        <v>6997964</v>
+        <v>6998218</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4332,6 +4327,11 @@
       <c r="AA33" t="inlineStr">
         <is>
           <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Rikliga mängder garnlav på gran inom ett område på 25m.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4346,17 +4346,17 @@
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4490,10 +4490,10 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>131244295</v>
+        <v>131244248</v>
       </c>
       <c r="B35" t="n">
-        <v>79244</v>
+        <v>91809</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4501,37 +4501,34 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>6425</v>
+        <v>1202</v>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Ullticka</t>
         </is>
       </c>
       <c r="G35" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Phellinidium ferrugineofuscum</t>
         </is>
       </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
         </is>
       </c>
       <c r="I35" t="inlineStr"/>
-      <c r="J35" t="inlineStr"/>
-      <c r="K35" t="inlineStr"/>
-      <c r="N35" t="inlineStr"/>
       <c r="P35" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q35" t="n">
-        <v>613437</v>
+        <v>613420</v>
       </c>
       <c r="R35" t="n">
-        <v>6998166</v>
+        <v>6998068</v>
       </c>
       <c r="S35" t="n">
         <v>10</v>
@@ -4572,24 +4569,8 @@
       <c r="AE35" t="b">
         <v>0</v>
       </c>
-      <c r="AF35" t="inlineStr"/>
       <c r="AG35" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ35" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO35" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT35" t="inlineStr"/>
       <c r="AW35" t="inlineStr">
@@ -4606,10 +4587,10 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>131244248</v>
+        <v>131244295</v>
       </c>
       <c r="B36" t="n">
-        <v>91809</v>
+        <v>79244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4617,34 +4598,37 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>1202</v>
+        <v>6425</v>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Ullticka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Phellinidium ferrugineofuscum</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H36" t="inlineStr">
         <is>
-          <t>(P.Karst.) Fiasson &amp; Niemelä</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I36" t="inlineStr"/>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="N36" t="inlineStr"/>
       <c r="P36" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q36" t="n">
-        <v>613420</v>
+        <v>613437</v>
       </c>
       <c r="R36" t="n">
-        <v>6998068</v>
+        <v>6998166</v>
       </c>
       <c r="S36" t="n">
         <v>10</v>
@@ -4685,8 +4669,24 @@
       <c r="AE36" t="b">
         <v>0</v>
       </c>
+      <c r="AF36" t="inlineStr"/>
       <c r="AG36" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ36" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO36" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT36" t="inlineStr"/>
       <c r="AW36" t="inlineStr">
@@ -4703,10 +4703,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131244250</v>
+        <v>131244297</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>79244</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4714,31 +4714,26 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -4746,10 +4741,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>613387</v>
+        <v>613464</v>
       </c>
       <c r="R37" t="n">
-        <v>6998025</v>
+        <v>6998117</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4784,19 +4779,30 @@
           <t>2026-02-20</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
-        </is>
-      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4813,10 +4819,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131244297</v>
+        <v>131244250</v>
       </c>
       <c r="B38" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4824,26 +4830,31 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -4851,10 +4862,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>613464</v>
+        <v>613387</v>
       </c>
       <c r="R38" t="n">
-        <v>6998117</v>
+        <v>6998025</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4889,30 +4900,19 @@
           <t>2026-02-20</t>
         </is>
       </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
+        </is>
+      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
@@ -5043,6 +5043,116 @@
       </c>
       <c r="AY39" t="inlineStr"/>
     </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>131244262</v>
+      </c>
+      <c r="B40" t="n">
+        <v>57884</v>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>NT</t>
+        </is>
+      </c>
+      <c r="E40" t="n">
+        <v>100109</v>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>Tretåig hackspett</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Picoides tridactylus</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>(Linnaeus, 1758)</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr"/>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>Vallsjöberget, Ång</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>613413</v>
+      </c>
+      <c r="R40" t="n">
+        <v>6998097</v>
+      </c>
+      <c r="S40" t="n">
+        <v>10</v>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>Västernorrland</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t>Ångermanland</t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>Sollefteå</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AA40" t="inlineStr">
+        <is>
+          <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC40" t="inlineStr">
+        <is>
+          <t>Färska ringhack på gran.</t>
+        </is>
+      </c>
+      <c r="AD40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AE40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AG40" t="b">
+        <v>0</v>
+      </c>
+      <c r="AT40" t="inlineStr"/>
+      <c r="AW40" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AX40" t="inlineStr">
+        <is>
+          <t>Markus Borja</t>
+        </is>
+      </c>
+      <c r="AY40" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artfynd/A 31560-2024 artfynd.xlsx
+++ b/artfynd/A 31560-2024 artfynd.xlsx
@@ -1637,10 +1637,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131244258</v>
+        <v>131244279</v>
       </c>
       <c r="B10" t="n">
-        <v>57881</v>
+        <v>79244</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1648,31 +1648,26 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I10" t="inlineStr"/>
+      <c r="J10" t="inlineStr"/>
       <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
-      <c r="M10" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N10" t="inlineStr"/>
       <c r="P10" t="inlineStr">
         <is>
@@ -1680,10 +1675,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>613451</v>
+        <v>613427</v>
       </c>
       <c r="R10" t="n">
-        <v>6998138</v>
+        <v>6998062</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1724,8 +1719,24 @@
       <c r="AE10" t="b">
         <v>0</v>
       </c>
+      <c r="AF10" t="inlineStr"/>
       <c r="AG10" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ10" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO10" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT10" t="inlineStr"/>
       <c r="AW10" t="inlineStr">
@@ -1742,7 +1753,7 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131244279</v>
+        <v>131244300</v>
       </c>
       <c r="B11" t="n">
         <v>79244</v>
@@ -1780,10 +1791,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>613427</v>
+        <v>613444</v>
       </c>
       <c r="R11" t="n">
-        <v>6998062</v>
+        <v>6998046</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1830,17 +1841,17 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1858,10 +1869,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131244300</v>
+        <v>131244258</v>
       </c>
       <c r="B12" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1869,26 +1880,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1896,10 +1912,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>613444</v>
+        <v>613451</v>
       </c>
       <c r="R12" t="n">
-        <v>6998046</v>
+        <v>6998138</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1940,24 +1956,8 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -3691,10 +3691,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131244255</v>
+        <v>131244259</v>
       </c>
       <c r="B28" t="n">
-        <v>58043</v>
+        <v>92107</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3702,50 +3702,34 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>103021</v>
+        <v>658</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I28" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K28" t="inlineStr"/>
-      <c r="L28" t="inlineStr"/>
-      <c r="M28" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N28" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>613399</v>
+        <v>613387</v>
       </c>
       <c r="R28" t="n">
-        <v>6998197</v>
+        <v>6998216</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3775,19 +3759,9 @@
           <t>2026-02-20</t>
         </is>
       </c>
-      <c r="Z28" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="AB28" t="inlineStr">
-        <is>
-          <t>10:00</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3814,10 +3788,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131244259</v>
+        <v>131244252</v>
       </c>
       <c r="B29" t="n">
-        <v>92107</v>
+        <v>57884</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3825,34 +3799,42 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr"/>
       <c r="P29" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>613387</v>
+        <v>613433</v>
       </c>
       <c r="R29" t="n">
-        <v>6998216</v>
+        <v>6998019</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3885,6 +3867,11 @@
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC29" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3911,10 +3898,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131244252</v>
+        <v>131244255</v>
       </c>
       <c r="B30" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3922,42 +3909,50 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="K30" t="inlineStr"/>
       <c r="L30" t="inlineStr"/>
       <c r="M30" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr"/>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P30" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>613433</v>
+        <v>613399</v>
       </c>
       <c r="R30" t="n">
-        <v>6998019</v>
+        <v>6998197</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3987,14 +3982,19 @@
           <t>2026-02-20</t>
         </is>
       </c>
+      <c r="Z30" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-20</t>
         </is>
       </c>
-      <c r="AC30" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
+      <c r="AB30" t="inlineStr">
+        <is>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD30" t="b">

--- a/artfynd/A 31560-2024 artfynd.xlsx
+++ b/artfynd/A 31560-2024 artfynd.xlsx
@@ -1400,10 +1400,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131244269</v>
+        <v>131244272</v>
       </c>
       <c r="B8" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>613333</v>
+        <v>613374</v>
       </c>
       <c r="R8" t="n">
-        <v>6998073</v>
+        <v>6998037</v>
       </c>
       <c r="S8" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1474,11 +1474,6 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="AC8" t="inlineStr">
-        <is>
-          <t>Rikligt med garnlav inom ett område på 25m</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1521,10 +1516,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131244272</v>
+        <v>131244269</v>
       </c>
       <c r="B9" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -1559,13 +1554,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>613374</v>
+        <v>613333</v>
       </c>
       <c r="R9" t="n">
-        <v>6998037</v>
+        <v>6998073</v>
       </c>
       <c r="S9" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1595,6 +1590,11 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC9" t="inlineStr">
+        <is>
+          <t>Rikligt med garnlav inom ett område på 25m</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1637,10 +1637,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131244279</v>
+        <v>131244300</v>
       </c>
       <c r="B10" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>613427</v>
+        <v>613444</v>
       </c>
       <c r="R10" t="n">
-        <v>6998062</v>
+        <v>6998046</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1725,17 +1725,17 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131244300</v>
+        <v>131244279</v>
       </c>
       <c r="B11" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1791,10 +1791,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>613444</v>
+        <v>613427</v>
       </c>
       <c r="R11" t="n">
-        <v>6998046</v>
+        <v>6998062</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1841,17 +1841,17 @@
       </c>
       <c r="AJ11" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK11" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO11" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT11" t="inlineStr"/>
@@ -1977,7 +1977,7 @@
         <v>131244283</v>
       </c>
       <c r="B13" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -2093,7 +2093,7 @@
         <v>131244299</v>
       </c>
       <c r="B14" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -2206,10 +2206,10 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131244280</v>
+        <v>131244281</v>
       </c>
       <c r="B15" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -2244,13 +2244,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>613405</v>
+        <v>613346</v>
       </c>
       <c r="R15" t="n">
-        <v>6998110</v>
+        <v>6998128</v>
       </c>
       <c r="S15" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2280,6 +2280,11 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC15" t="inlineStr">
+        <is>
+          <t>Rikliga mängder garnlav på främst tall men även gran inom ett område på ca 50 m.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2291,21 +2296,6 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ15" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO15" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2322,10 +2312,10 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131244281</v>
+        <v>131244280</v>
       </c>
       <c r="B16" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -2360,13 +2350,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>613346</v>
+        <v>613405</v>
       </c>
       <c r="R16" t="n">
-        <v>6998128</v>
+        <v>6998110</v>
       </c>
       <c r="S16" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2396,11 +2386,6 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="AC16" t="inlineStr">
-        <is>
-          <t>Rikliga mängder garnlav på främst tall men även gran inom ett område på ca 50 m.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2412,6 +2397,21 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ16" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO16" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2428,10 +2428,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131244274</v>
+        <v>131244253</v>
       </c>
       <c r="B17" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2439,26 +2439,31 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
-      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2466,10 +2471,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>613467</v>
+        <v>613354</v>
       </c>
       <c r="R17" t="n">
-        <v>6997940</v>
+        <v>6998128</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2504,30 +2509,19 @@
           <t>2026-02-20</t>
         </is>
       </c>
+      <c r="AC17" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
+        </is>
+      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
-      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ17" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK17" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO17" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2544,10 +2538,10 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131244273</v>
+        <v>131244274</v>
       </c>
       <c r="B18" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -2582,10 +2576,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>613476</v>
+        <v>613467</v>
       </c>
       <c r="R18" t="n">
-        <v>6997926</v>
+        <v>6997940</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2618,11 +2612,6 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="AC18" t="inlineStr">
-        <is>
-          <t>Två tallar med rikliga mängder garnlav</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2665,10 +2654,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131244253</v>
+        <v>131244273</v>
       </c>
       <c r="B19" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2676,31 +2665,26 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
+      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
-      <c r="L19" t="inlineStr"/>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2708,10 +2692,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>613354</v>
+        <v>613476</v>
       </c>
       <c r="R19" t="n">
-        <v>6998128</v>
+        <v>6997926</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2748,7 +2732,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Färska ringhack på tall</t>
+          <t>Två tallar med rikliga mängder garnlav</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2757,8 +2741,24 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
+      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ19" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK19" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO19" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">
@@ -2775,10 +2775,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131244289</v>
+        <v>131244257</v>
       </c>
       <c r="B20" t="n">
-        <v>79244</v>
+        <v>57881</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2786,26 +2786,31 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2813,10 +2818,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>613338</v>
+        <v>613343</v>
       </c>
       <c r="R20" t="n">
-        <v>6998224</v>
+        <v>6998121</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2857,24 +2862,8 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2891,10 +2880,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131244257</v>
+        <v>131244289</v>
       </c>
       <c r="B21" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2902,31 +2891,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2934,10 +2918,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>613343</v>
+        <v>613338</v>
       </c>
       <c r="R21" t="n">
-        <v>6998121</v>
+        <v>6998224</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2978,8 +2962,24 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -2996,10 +2996,10 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131244276</v>
+        <v>131244278</v>
       </c>
       <c r="B22" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>613444</v>
+        <v>613406</v>
       </c>
       <c r="R22" t="n">
-        <v>6998014</v>
+        <v>6998050</v>
       </c>
       <c r="S22" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3070,11 +3070,6 @@
       <c r="AA22" t="inlineStr">
         <is>
           <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="AC22" t="inlineStr">
-        <is>
-          <t>Rilkigt med garnlav inom ett ca 25m område</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3089,17 +3084,17 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3117,10 +3112,10 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131244278</v>
+        <v>131244276</v>
       </c>
       <c r="B23" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -3155,13 +3150,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>613406</v>
+        <v>613444</v>
       </c>
       <c r="R23" t="n">
-        <v>6998050</v>
+        <v>6998014</v>
       </c>
       <c r="S23" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3191,6 +3186,11 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC23" t="inlineStr">
+        <is>
+          <t>Rilkigt med garnlav inom ett ca 25m område</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3205,17 +3205,17 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3233,10 +3233,10 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131244290</v>
+        <v>131244288</v>
       </c>
       <c r="B24" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -3271,10 +3271,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>613327</v>
+        <v>613331</v>
       </c>
       <c r="R24" t="n">
-        <v>6998224</v>
+        <v>6998221</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3349,10 +3349,10 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131244288</v>
+        <v>131244290</v>
       </c>
       <c r="B25" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -3387,10 +3387,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>613331</v>
+        <v>613327</v>
       </c>
       <c r="R25" t="n">
-        <v>6998221</v>
+        <v>6998224</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3468,7 +3468,7 @@
         <v>131244284</v>
       </c>
       <c r="B26" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -3694,7 +3694,7 @@
         <v>131244259</v>
       </c>
       <c r="B28" t="n">
-        <v>92107</v>
+        <v>92108</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -4024,7 +4024,7 @@
         <v>131244296</v>
       </c>
       <c r="B31" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -4137,10 +4137,10 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131244266</v>
+        <v>131244263</v>
       </c>
       <c r="B32" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -4175,13 +4175,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>613400</v>
+        <v>613379</v>
       </c>
       <c r="R32" t="n">
-        <v>6997964</v>
+        <v>6998218</v>
       </c>
       <c r="S32" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4211,6 +4211,11 @@
       <c r="AA32" t="inlineStr">
         <is>
           <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC32" t="inlineStr">
+        <is>
+          <t>Rikliga mängder garnlav på gran inom ett område på 25m.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4225,17 +4230,17 @@
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4253,10 +4258,10 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131244263</v>
+        <v>131244266</v>
       </c>
       <c r="B33" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -4291,13 +4296,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>613379</v>
+        <v>613400</v>
       </c>
       <c r="R33" t="n">
-        <v>6998218</v>
+        <v>6997964</v>
       </c>
       <c r="S33" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4327,11 +4332,6 @@
       <c r="AA33" t="inlineStr">
         <is>
           <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="AC33" t="inlineStr">
-        <is>
-          <t>Rikliga mängder garnlav på gran inom ett område på 25m.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4346,17 +4346,17 @@
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4377,7 +4377,7 @@
         <v>131244277</v>
       </c>
       <c r="B34" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -4493,7 +4493,7 @@
         <v>131244248</v>
       </c>
       <c r="B35" t="n">
-        <v>91809</v>
+        <v>91810</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -4590,7 +4590,7 @@
         <v>131244295</v>
       </c>
       <c r="B36" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -4703,10 +4703,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131244297</v>
+        <v>131244250</v>
       </c>
       <c r="B37" t="n">
-        <v>79244</v>
+        <v>57884</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4714,26 +4714,31 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
-      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
+      <c r="M37" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -4741,10 +4746,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>613464</v>
+        <v>613387</v>
       </c>
       <c r="R37" t="n">
-        <v>6998117</v>
+        <v>6998025</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4779,30 +4784,19 @@
           <t>2026-02-20</t>
         </is>
       </c>
+      <c r="AC37" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
+        </is>
+      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="b">
         <v>0</v>
       </c>
-      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ37" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK37" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO37" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4819,10 +4813,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131244250</v>
+        <v>131244297</v>
       </c>
       <c r="B38" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4830,31 +4824,26 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
+      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
-      <c r="L38" t="inlineStr"/>
-      <c r="M38" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -4862,10 +4851,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>613387</v>
+        <v>613464</v>
       </c>
       <c r="R38" t="n">
-        <v>6998025</v>
+        <v>6998117</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4900,19 +4889,30 @@
           <t>2026-02-20</t>
         </is>
       </c>
-      <c r="AC38" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
-        </is>
-      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
+      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ38" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK38" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO38" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">
@@ -4932,7 +4932,7 @@
         <v>131244265</v>
       </c>
       <c r="B39" t="n">
-        <v>79244</v>
+        <v>79245</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>

--- a/artfynd/A 31560-2024 artfynd.xlsx
+++ b/artfynd/A 31560-2024 artfynd.xlsx
@@ -2428,10 +2428,10 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>131244253</v>
+        <v>131244274</v>
       </c>
       <c r="B17" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -2439,31 +2439,26 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I17" t="inlineStr"/>
+      <c r="J17" t="inlineStr"/>
       <c r="K17" t="inlineStr"/>
-      <c r="L17" t="inlineStr"/>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N17" t="inlineStr"/>
       <c r="P17" t="inlineStr">
         <is>
@@ -2471,10 +2466,10 @@
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>613354</v>
+        <v>613467</v>
       </c>
       <c r="R17" t="n">
-        <v>6998128</v>
+        <v>6997940</v>
       </c>
       <c r="S17" t="n">
         <v>10</v>
@@ -2509,19 +2504,30 @@
           <t>2026-02-20</t>
         </is>
       </c>
-      <c r="AC17" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
-        </is>
-      </c>
       <c r="AD17" t="b">
         <v>0</v>
       </c>
       <c r="AE17" t="b">
         <v>0</v>
       </c>
+      <c r="AF17" t="inlineStr"/>
       <c r="AG17" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ17" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK17" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO17" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT17" t="inlineStr"/>
       <c r="AW17" t="inlineStr">
@@ -2538,7 +2544,7 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>131244274</v>
+        <v>131244273</v>
       </c>
       <c r="B18" t="n">
         <v>79245</v>
@@ -2576,10 +2582,10 @@
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>613467</v>
+        <v>613476</v>
       </c>
       <c r="R18" t="n">
-        <v>6997940</v>
+        <v>6997926</v>
       </c>
       <c r="S18" t="n">
         <v>10</v>
@@ -2612,6 +2618,11 @@
       <c r="AA18" t="inlineStr">
         <is>
           <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC18" t="inlineStr">
+        <is>
+          <t>Två tallar med rikliga mängder garnlav</t>
         </is>
       </c>
       <c r="AD18" t="b">
@@ -2654,10 +2665,10 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>131244273</v>
+        <v>131244253</v>
       </c>
       <c r="B19" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -2665,26 +2676,31 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I19" t="inlineStr"/>
-      <c r="J19" t="inlineStr"/>
       <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N19" t="inlineStr"/>
       <c r="P19" t="inlineStr">
         <is>
@@ -2692,10 +2708,10 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>613476</v>
+        <v>613354</v>
       </c>
       <c r="R19" t="n">
-        <v>6997926</v>
+        <v>6998128</v>
       </c>
       <c r="S19" t="n">
         <v>10</v>
@@ -2732,7 +2748,7 @@
       </c>
       <c r="AC19" t="inlineStr">
         <is>
-          <t>Två tallar med rikliga mängder garnlav</t>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD19" t="b">
@@ -2741,24 +2757,8 @@
       <c r="AE19" t="b">
         <v>0</v>
       </c>
-      <c r="AF19" t="inlineStr"/>
       <c r="AG19" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ19" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK19" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO19" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT19" t="inlineStr"/>
       <c r="AW19" t="inlineStr">

--- a/artfynd/A 31560-2024 artfynd.xlsx
+++ b/artfynd/A 31560-2024 artfynd.xlsx
@@ -1753,10 +1753,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131244279</v>
+        <v>131244258</v>
       </c>
       <c r="B11" t="n">
-        <v>79245</v>
+        <v>57881</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1764,26 +1764,31 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
-      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
+      <c r="L11" t="inlineStr"/>
+      <c r="M11" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1791,10 +1796,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>613427</v>
+        <v>613451</v>
       </c>
       <c r="R11" t="n">
-        <v>6998062</v>
+        <v>6998138</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1835,24 +1840,8 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
-      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ11" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO11" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1869,10 +1858,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131244258</v>
+        <v>131244279</v>
       </c>
       <c r="B12" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1880,31 +1869,26 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
+      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
-      <c r="L12" t="inlineStr"/>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1912,10 +1896,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>613451</v>
+        <v>613427</v>
       </c>
       <c r="R12" t="n">
-        <v>6998138</v>
+        <v>6998062</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1956,8 +1940,24 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
+      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ12" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO12" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -2775,10 +2775,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131244257</v>
+        <v>131244289</v>
       </c>
       <c r="B20" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2786,31 +2786,26 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
+      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
-      <c r="L20" t="inlineStr"/>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2818,10 +2813,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>613343</v>
+        <v>613338</v>
       </c>
       <c r="R20" t="n">
-        <v>6998121</v>
+        <v>6998224</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2862,8 +2857,24 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
+      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ20" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK20" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO20" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2880,10 +2891,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131244289</v>
+        <v>131244257</v>
       </c>
       <c r="B21" t="n">
-        <v>79245</v>
+        <v>57881</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2891,26 +2902,31 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
-      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2918,10 +2934,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>613338</v>
+        <v>613343</v>
       </c>
       <c r="R21" t="n">
-        <v>6998224</v>
+        <v>6998121</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2962,24 +2978,8 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
-      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ21" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK21" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO21" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -4703,10 +4703,10 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>131244250</v>
+        <v>131244297</v>
       </c>
       <c r="B37" t="n">
-        <v>57884</v>
+        <v>79245</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -4714,31 +4714,26 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>100109</v>
+        <v>6425</v>
       </c>
       <c r="F37" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I37" t="inlineStr"/>
+      <c r="J37" t="inlineStr"/>
       <c r="K37" t="inlineStr"/>
-      <c r="L37" t="inlineStr"/>
-      <c r="M37" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N37" t="inlineStr"/>
       <c r="P37" t="inlineStr">
         <is>
@@ -4746,10 +4741,10 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>613387</v>
+        <v>613464</v>
       </c>
       <c r="R37" t="n">
-        <v>6998025</v>
+        <v>6998117</v>
       </c>
       <c r="S37" t="n">
         <v>10</v>
@@ -4784,19 +4779,30 @@
           <t>2026-02-20</t>
         </is>
       </c>
-      <c r="AC37" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
-        </is>
-      </c>
       <c r="AD37" t="b">
         <v>0</v>
       </c>
       <c r="AE37" t="b">
         <v>0</v>
       </c>
+      <c r="AF37" t="inlineStr"/>
       <c r="AG37" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ37" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK37" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO37" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT37" t="inlineStr"/>
       <c r="AW37" t="inlineStr">
@@ -4813,10 +4819,10 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>131244297</v>
+        <v>131244250</v>
       </c>
       <c r="B38" t="n">
-        <v>79245</v>
+        <v>57884</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -4824,26 +4830,31 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>6425</v>
+        <v>100109</v>
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I38" t="inlineStr"/>
-      <c r="J38" t="inlineStr"/>
       <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N38" t="inlineStr"/>
       <c r="P38" t="inlineStr">
         <is>
@@ -4851,10 +4862,10 @@
         </is>
       </c>
       <c r="Q38" t="n">
-        <v>613464</v>
+        <v>613387</v>
       </c>
       <c r="R38" t="n">
-        <v>6998117</v>
+        <v>6998025</v>
       </c>
       <c r="S38" t="n">
         <v>10</v>
@@ -4889,30 +4900,19 @@
           <t>2026-02-20</t>
         </is>
       </c>
+      <c r="AC38" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
+        </is>
+      </c>
       <c r="AD38" t="b">
         <v>0</v>
       </c>
       <c r="AE38" t="b">
         <v>0</v>
       </c>
-      <c r="AF38" t="inlineStr"/>
       <c r="AG38" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ38" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK38" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO38" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT38" t="inlineStr"/>
       <c r="AW38" t="inlineStr">

--- a/artfynd/A 31560-2024 artfynd.xlsx
+++ b/artfynd/A 31560-2024 artfynd.xlsx
@@ -1400,7 +1400,7 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>131244272</v>
+        <v>131244269</v>
       </c>
       <c r="B8" t="n">
         <v>79245</v>
@@ -1438,13 +1438,13 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>613374</v>
+        <v>613333</v>
       </c>
       <c r="R8" t="n">
-        <v>6998037</v>
+        <v>6998073</v>
       </c>
       <c r="S8" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T8" t="inlineStr">
         <is>
@@ -1474,6 +1474,11 @@
       <c r="AA8" t="inlineStr">
         <is>
           <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC8" t="inlineStr">
+        <is>
+          <t>Rikligt med garnlav inom ett område på 25m</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1516,7 +1521,7 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>131244269</v>
+        <v>131244272</v>
       </c>
       <c r="B9" t="n">
         <v>79245</v>
@@ -1554,13 +1559,13 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>613333</v>
+        <v>613374</v>
       </c>
       <c r="R9" t="n">
-        <v>6998073</v>
+        <v>6998037</v>
       </c>
       <c r="S9" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T9" t="inlineStr">
         <is>
@@ -1590,11 +1595,6 @@
       <c r="AA9" t="inlineStr">
         <is>
           <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="AC9" t="inlineStr">
-        <is>
-          <t>Rikligt med garnlav inom ett område på 25m</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1637,7 +1637,7 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>131244300</v>
+        <v>131244279</v>
       </c>
       <c r="B10" t="n">
         <v>79245</v>
@@ -1675,10 +1675,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>613444</v>
+        <v>613427</v>
       </c>
       <c r="R10" t="n">
-        <v>6998046</v>
+        <v>6998062</v>
       </c>
       <c r="S10" t="n">
         <v>10</v>
@@ -1725,17 +1725,17 @@
       </c>
       <c r="AJ10" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK10" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO10" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT10" t="inlineStr"/>
@@ -1753,10 +1753,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>131244258</v>
+        <v>131244300</v>
       </c>
       <c r="B11" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -1764,31 +1764,26 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I11" t="inlineStr"/>
+      <c r="J11" t="inlineStr"/>
       <c r="K11" t="inlineStr"/>
-      <c r="L11" t="inlineStr"/>
-      <c r="M11" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
@@ -1796,10 +1791,10 @@
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>613451</v>
+        <v>613444</v>
       </c>
       <c r="R11" t="n">
-        <v>6998138</v>
+        <v>6998046</v>
       </c>
       <c r="S11" t="n">
         <v>10</v>
@@ -1840,8 +1835,24 @@
       <c r="AE11" t="b">
         <v>0</v>
       </c>
+      <c r="AF11" t="inlineStr"/>
       <c r="AG11" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ11" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK11" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO11" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT11" t="inlineStr"/>
       <c r="AW11" t="inlineStr">
@@ -1858,10 +1869,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>131244279</v>
+        <v>131244258</v>
       </c>
       <c r="B12" t="n">
-        <v>79245</v>
+        <v>57881</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -1869,26 +1880,31 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
-      <c r="J12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
@@ -1896,10 +1912,10 @@
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>613427</v>
+        <v>613451</v>
       </c>
       <c r="R12" t="n">
-        <v>6998062</v>
+        <v>6998138</v>
       </c>
       <c r="S12" t="n">
         <v>10</v>
@@ -1940,24 +1956,8 @@
       <c r="AE12" t="b">
         <v>0</v>
       </c>
-      <c r="AF12" t="inlineStr"/>
       <c r="AG12" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ12" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO12" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT12" t="inlineStr"/>
       <c r="AW12" t="inlineStr">
@@ -2206,7 +2206,7 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>131244281</v>
+        <v>131244280</v>
       </c>
       <c r="B15" t="n">
         <v>79245</v>
@@ -2244,13 +2244,13 @@
         </is>
       </c>
       <c r="Q15" t="n">
-        <v>613346</v>
+        <v>613405</v>
       </c>
       <c r="R15" t="n">
-        <v>6998128</v>
+        <v>6998110</v>
       </c>
       <c r="S15" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
       <c r="T15" t="inlineStr">
         <is>
@@ -2280,11 +2280,6 @@
       <c r="AA15" t="inlineStr">
         <is>
           <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="AC15" t="inlineStr">
-        <is>
-          <t>Rikliga mängder garnlav på främst tall men även gran inom ett område på ca 50 m.</t>
         </is>
       </c>
       <c r="AD15" t="b">
@@ -2296,6 +2291,21 @@
       <c r="AF15" t="inlineStr"/>
       <c r="AG15" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ15" t="inlineStr">
+        <is>
+          <t>gran</t>
+        </is>
+      </c>
+      <c r="AK15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
+      </c>
+      <c r="AO15" t="inlineStr">
+        <is>
+          <t>Picea abies</t>
+        </is>
       </c>
       <c r="AT15" t="inlineStr"/>
       <c r="AW15" t="inlineStr">
@@ -2312,7 +2322,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>131244280</v>
+        <v>131244281</v>
       </c>
       <c r="B16" t="n">
         <v>79245</v>
@@ -2350,13 +2360,13 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>613405</v>
+        <v>613346</v>
       </c>
       <c r="R16" t="n">
-        <v>6998110</v>
+        <v>6998128</v>
       </c>
       <c r="S16" t="n">
-        <v>10</v>
+        <v>50</v>
       </c>
       <c r="T16" t="inlineStr">
         <is>
@@ -2386,6 +2396,11 @@
       <c r="AA16" t="inlineStr">
         <is>
           <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC16" t="inlineStr">
+        <is>
+          <t>Rikliga mängder garnlav på främst tall men även gran inom ett område på ca 50 m.</t>
         </is>
       </c>
       <c r="AD16" t="b">
@@ -2397,21 +2412,6 @@
       <c r="AF16" t="inlineStr"/>
       <c r="AG16" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ16" t="inlineStr">
-        <is>
-          <t>gran</t>
-        </is>
-      </c>
-      <c r="AK16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
-      </c>
-      <c r="AO16" t="inlineStr">
-        <is>
-          <t>Picea abies</t>
-        </is>
       </c>
       <c r="AT16" t="inlineStr"/>
       <c r="AW16" t="inlineStr">
@@ -2775,10 +2775,10 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>131244289</v>
+        <v>131244257</v>
       </c>
       <c r="B20" t="n">
-        <v>79245</v>
+        <v>57881</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -2786,26 +2786,31 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>6425</v>
+        <v>100049</v>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Garnlav</t>
+          <t>Spillkråka</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>Alectoria sarmentosa</t>
+          <t>Dryocopus martius</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>(Ach.) Ach.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I20" t="inlineStr"/>
-      <c r="J20" t="inlineStr"/>
       <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
       <c r="N20" t="inlineStr"/>
       <c r="P20" t="inlineStr">
         <is>
@@ -2813,10 +2818,10 @@
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>613338</v>
+        <v>613343</v>
       </c>
       <c r="R20" t="n">
-        <v>6998224</v>
+        <v>6998121</v>
       </c>
       <c r="S20" t="n">
         <v>10</v>
@@ -2857,24 +2862,8 @@
       <c r="AE20" t="b">
         <v>0</v>
       </c>
-      <c r="AF20" t="inlineStr"/>
       <c r="AG20" t="b">
         <v>0</v>
-      </c>
-      <c r="AJ20" t="inlineStr">
-        <is>
-          <t>tall</t>
-        </is>
-      </c>
-      <c r="AK20" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
-      </c>
-      <c r="AO20" t="inlineStr">
-        <is>
-          <t>Pinus sylvestris</t>
-        </is>
       </c>
       <c r="AT20" t="inlineStr"/>
       <c r="AW20" t="inlineStr">
@@ -2891,10 +2880,10 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>131244257</v>
+        <v>131244289</v>
       </c>
       <c r="B21" t="n">
-        <v>57881</v>
+        <v>79245</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -2902,31 +2891,26 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>100049</v>
+        <v>6425</v>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Spillkråka</t>
+          <t>Garnlav</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>Dryocopus martius</t>
+          <t>Alectoria sarmentosa</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
+          <t>(Ach.) Ach.</t>
         </is>
       </c>
       <c r="I21" t="inlineStr"/>
+      <c r="J21" t="inlineStr"/>
       <c r="K21" t="inlineStr"/>
-      <c r="L21" t="inlineStr"/>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>färska spår</t>
-        </is>
-      </c>
       <c r="N21" t="inlineStr"/>
       <c r="P21" t="inlineStr">
         <is>
@@ -2934,10 +2918,10 @@
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>613343</v>
+        <v>613338</v>
       </c>
       <c r="R21" t="n">
-        <v>6998121</v>
+        <v>6998224</v>
       </c>
       <c r="S21" t="n">
         <v>10</v>
@@ -2978,8 +2962,24 @@
       <c r="AE21" t="b">
         <v>0</v>
       </c>
+      <c r="AF21" t="inlineStr"/>
       <c r="AG21" t="b">
         <v>0</v>
+      </c>
+      <c r="AJ21" t="inlineStr">
+        <is>
+          <t>tall</t>
+        </is>
+      </c>
+      <c r="AK21" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
+      </c>
+      <c r="AO21" t="inlineStr">
+        <is>
+          <t>Pinus sylvestris</t>
+        </is>
       </c>
       <c r="AT21" t="inlineStr"/>
       <c r="AW21" t="inlineStr">
@@ -2996,7 +2996,7 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>131244278</v>
+        <v>131244276</v>
       </c>
       <c r="B22" t="n">
         <v>79245</v>
@@ -3034,13 +3034,13 @@
         </is>
       </c>
       <c r="Q22" t="n">
-        <v>613406</v>
+        <v>613444</v>
       </c>
       <c r="R22" t="n">
-        <v>6998050</v>
+        <v>6998014</v>
       </c>
       <c r="S22" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T22" t="inlineStr">
         <is>
@@ -3070,6 +3070,11 @@
       <c r="AA22" t="inlineStr">
         <is>
           <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC22" t="inlineStr">
+        <is>
+          <t>Rilkigt med garnlav inom ett ca 25m område</t>
         </is>
       </c>
       <c r="AD22" t="b">
@@ -3084,17 +3089,17 @@
       </c>
       <c r="AJ22" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK22" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO22" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT22" t="inlineStr"/>
@@ -3112,7 +3117,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>131244276</v>
+        <v>131244278</v>
       </c>
       <c r="B23" t="n">
         <v>79245</v>
@@ -3150,13 +3155,13 @@
         </is>
       </c>
       <c r="Q23" t="n">
-        <v>613444</v>
+        <v>613406</v>
       </c>
       <c r="R23" t="n">
-        <v>6998014</v>
+        <v>6998050</v>
       </c>
       <c r="S23" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T23" t="inlineStr">
         <is>
@@ -3186,11 +3191,6 @@
       <c r="AA23" t="inlineStr">
         <is>
           <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="AC23" t="inlineStr">
-        <is>
-          <t>Rilkigt med garnlav inom ett ca 25m område</t>
         </is>
       </c>
       <c r="AD23" t="b">
@@ -3205,17 +3205,17 @@
       </c>
       <c r="AJ23" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK23" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO23" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT23" t="inlineStr"/>
@@ -3233,7 +3233,7 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>131244288</v>
+        <v>131244290</v>
       </c>
       <c r="B24" t="n">
         <v>79245</v>
@@ -3271,10 +3271,10 @@
         </is>
       </c>
       <c r="Q24" t="n">
-        <v>613331</v>
+        <v>613327</v>
       </c>
       <c r="R24" t="n">
-        <v>6998221</v>
+        <v>6998224</v>
       </c>
       <c r="S24" t="n">
         <v>10</v>
@@ -3349,7 +3349,7 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>131244290</v>
+        <v>131244288</v>
       </c>
       <c r="B25" t="n">
         <v>79245</v>
@@ -3387,10 +3387,10 @@
         </is>
       </c>
       <c r="Q25" t="n">
-        <v>613327</v>
+        <v>613331</v>
       </c>
       <c r="R25" t="n">
-        <v>6998224</v>
+        <v>6998221</v>
       </c>
       <c r="S25" t="n">
         <v>10</v>
@@ -3691,10 +3691,10 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>131244259</v>
+        <v>131244252</v>
       </c>
       <c r="B28" t="n">
-        <v>92108</v>
+        <v>57884</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -3702,34 +3702,42 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>658</v>
+        <v>100109</v>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>Rosenticka</t>
+          <t>Tretåig hackspett</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Fomitopsis rosea</t>
+          <t>Picoides tridactylus</t>
         </is>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+          <t>(Linnaeus, 1758)</t>
         </is>
       </c>
       <c r="I28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>färska spår</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr"/>
       <c r="P28" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q28" t="n">
-        <v>613387</v>
+        <v>613433</v>
       </c>
       <c r="R28" t="n">
-        <v>6998216</v>
+        <v>6998019</v>
       </c>
       <c r="S28" t="n">
         <v>10</v>
@@ -3762,6 +3770,11 @@
       <c r="AA28" t="inlineStr">
         <is>
           <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC28" t="inlineStr">
+        <is>
+          <t>Färska ringhack på tall</t>
         </is>
       </c>
       <c r="AD28" t="b">
@@ -3788,10 +3801,10 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>131244252</v>
+        <v>131244255</v>
       </c>
       <c r="B29" t="n">
-        <v>57884</v>
+        <v>58043</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -3799,42 +3812,50 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>100109</v>
+        <v>103021</v>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>Tretåig hackspett</t>
+          <t>Talltita</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Picoides tridactylus</t>
+          <t>Poecile montanus</t>
         </is>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>(Linnaeus, 1758)</t>
-        </is>
-      </c>
-      <c r="I29" t="inlineStr"/>
+          <t>(Conrad von Baldenstein, 1827)</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
       <c r="K29" t="inlineStr"/>
       <c r="L29" t="inlineStr"/>
       <c r="M29" t="inlineStr">
         <is>
-          <t>färska spår</t>
-        </is>
-      </c>
-      <c r="N29" t="inlineStr"/>
+          <t>födosökande</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t>observerad</t>
+        </is>
+      </c>
       <c r="P29" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q29" t="n">
-        <v>613433</v>
+        <v>613399</v>
       </c>
       <c r="R29" t="n">
-        <v>6998019</v>
+        <v>6998197</v>
       </c>
       <c r="S29" t="n">
         <v>10</v>
@@ -3864,14 +3885,19 @@
           <t>2026-02-20</t>
         </is>
       </c>
+      <c r="Z29" t="inlineStr">
+        <is>
+          <t>09:50</t>
+        </is>
+      </c>
       <c r="AA29" t="inlineStr">
         <is>
           <t>2026-02-20</t>
         </is>
       </c>
-      <c r="AC29" t="inlineStr">
-        <is>
-          <t>Färska ringhack på tall</t>
+      <c r="AB29" t="inlineStr">
+        <is>
+          <t>10:00</t>
         </is>
       </c>
       <c r="AD29" t="b">
@@ -3898,10 +3924,10 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>131244255</v>
+        <v>131244259</v>
       </c>
       <c r="B30" t="n">
-        <v>58043</v>
+        <v>92111</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -3909,50 +3935,34 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>103021</v>
+        <v>658</v>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>Talltita</t>
+          <t>Rosenticka</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Poecile montanus</t>
+          <t>Fomitopsis rosea</t>
         </is>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>(Conrad von Baldenstein, 1827)</t>
-        </is>
-      </c>
-      <c r="I30" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
-      </c>
-      <c r="K30" t="inlineStr"/>
-      <c r="L30" t="inlineStr"/>
-      <c r="M30" t="inlineStr">
-        <is>
-          <t>födosökande</t>
-        </is>
-      </c>
-      <c r="N30" t="inlineStr">
-        <is>
-          <t>observerad</t>
-        </is>
-      </c>
+          <t>(Alb. &amp; Schwein.:Fr.) P.Karst.</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="P30" t="inlineStr">
         <is>
           <t>Vallsjöberget, Ång</t>
         </is>
       </c>
       <c r="Q30" t="n">
-        <v>613399</v>
+        <v>613387</v>
       </c>
       <c r="R30" t="n">
-        <v>6998197</v>
+        <v>6998216</v>
       </c>
       <c r="S30" t="n">
         <v>10</v>
@@ -3982,19 +3992,9 @@
           <t>2026-02-20</t>
         </is>
       </c>
-      <c r="Z30" t="inlineStr">
-        <is>
-          <t>09:50</t>
-        </is>
-      </c>
       <c r="AA30" t="inlineStr">
         <is>
           <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="AB30" t="inlineStr">
-        <is>
-          <t>10:00</t>
         </is>
       </c>
       <c r="AD30" t="b">
@@ -4137,7 +4137,7 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>131244263</v>
+        <v>131244266</v>
       </c>
       <c r="B32" t="n">
         <v>79245</v>
@@ -4175,13 +4175,13 @@
         </is>
       </c>
       <c r="Q32" t="n">
-        <v>613379</v>
+        <v>613400</v>
       </c>
       <c r="R32" t="n">
-        <v>6998218</v>
+        <v>6997964</v>
       </c>
       <c r="S32" t="n">
-        <v>25</v>
+        <v>10</v>
       </c>
       <c r="T32" t="inlineStr">
         <is>
@@ -4211,11 +4211,6 @@
       <c r="AA32" t="inlineStr">
         <is>
           <t>2026-02-20</t>
-        </is>
-      </c>
-      <c r="AC32" t="inlineStr">
-        <is>
-          <t>Rikliga mängder garnlav på gran inom ett område på 25m.</t>
         </is>
       </c>
       <c r="AD32" t="b">
@@ -4230,17 +4225,17 @@
       </c>
       <c r="AJ32" t="inlineStr">
         <is>
-          <t>gran</t>
+          <t>tall</t>
         </is>
       </c>
       <c r="AK32" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AO32" t="inlineStr">
         <is>
-          <t>Picea abies</t>
+          <t>Pinus sylvestris</t>
         </is>
       </c>
       <c r="AT32" t="inlineStr"/>
@@ -4258,7 +4253,7 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>131244266</v>
+        <v>131244263</v>
       </c>
       <c r="B33" t="n">
         <v>79245</v>
@@ -4296,13 +4291,13 @@
         </is>
       </c>
       <c r="Q33" t="n">
-        <v>613400</v>
+        <v>613379</v>
       </c>
       <c r="R33" t="n">
-        <v>6997964</v>
+        <v>6998218</v>
       </c>
       <c r="S33" t="n">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="T33" t="inlineStr">
         <is>
@@ -4332,6 +4327,11 @@
       <c r="AA33" t="inlineStr">
         <is>
           <t>2026-02-20</t>
+        </is>
+      </c>
+      <c r="AC33" t="inlineStr">
+        <is>
+          <t>Rikliga mängder garnlav på gran inom ett område på 25m.</t>
         </is>
       </c>
       <c r="AD33" t="b">
@@ -4346,17 +4346,17 @@
       </c>
       <c r="AJ33" t="inlineStr">
         <is>
-          <t>tall</t>
+          <t>gran</t>
         </is>
       </c>
       <c r="AK33" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AO33" t="inlineStr">
         <is>
-          <t>Pinus sylvestris</t>
+          <t>Picea abies</t>
         </is>
       </c>
       <c r="AT33" t="inlineStr"/>
@@ -4493,7 +4493,7 @@
         <v>131244248</v>
       </c>
       <c r="B35" t="n">
-        <v>91810</v>
+        <v>91813</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
